--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฆ(39).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฆ(39).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694E0AFB-E394-3647-91D1-20ECA44A0588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{694E0AFB-E394-3647-91D1-20ECA44A0588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27D78A9C-7BE2-43E5-9A90-B4F5E0295A1F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1650" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="123">
   <si>
     <t>headword</t>
   </si>
@@ -34,12 +34,6 @@
     <t>ฆ</t>
   </si>
   <si>
-    <t>ฆน-, ฆนะ</t>
-  </si>
-  <si>
-    <t>ฆร-, ฆระ</t>
-  </si>
-  <si>
     <t>ฆ้อง</t>
   </si>
   <si>
@@ -52,12 +46,6 @@
     <t>ฆาฏ</t>
   </si>
   <si>
-    <t>ฆาต, ฆาต-</t>
-  </si>
-  <si>
-    <t>ฆาน, ฆาน-</t>
-  </si>
-  <si>
     <t>ฆานินทรีย์</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>ฆ่าแกง</t>
   </si>
   <si>
-    <t>ฆ่าควายเสียดายเกลือ, ฆ่าควายอย่าเสียดายพริก</t>
-  </si>
-  <si>
     <t>ฆ่าช้างเอางา</t>
   </si>
   <si>
@@ -148,15 +133,6 @@
     <t>โฆษณาชวนเชื่อ</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๖ เรียกว่า ฆอ ระฆัง เป็นอักษรตํ่า ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากกหรือแม่กก เช่น เมฆ.</t>
-  </si>
-  <si>
-    <t>น. แท่ง, ก้อน.; ว. แน่น, ทึบ, แข็ง เช่น กรวดกรับอันคละฆนศิลา (ดุษฎีคำฉันท์).; น. แท่ง, ก้อน.; ว. แน่น, ทึบ, แข็ง เช่น กรวดกรับอันคละฆนศิลา (ดุษฎีคำฉันท์).</t>
-  </si>
-  <si>
-    <t>น. เรือน.; น. เรือน.</t>
-  </si>
-  <si>
     <t>น. แม่เรือน, เมีย.</t>
   </si>
   <si>
@@ -187,15 +163,9 @@
     <t>น. ฆ้องขนาดใหญ่รองลงมาจากฆ้องชัย มีเชือกร้อยรูทั้ง ๒ ที่ใบฉัตร แขวนห้อยในแนวดิ่งกับขาหยั่งหรือคานไม้ หัวไม้ที่ใช้ตีพันด้วยผ้าหรือเชือกให้เป็นปุ่มโตอ่อนนุ่ม เวลาตีจะมีเสียงดังโหม่ง ๆ ใช้ตีกำกับจังหวะในวงปี่พาทย์ วงเครื่องสาย วงมโหรี และวงเถิดเทิง, สมัยโบราณใช้ตีในเวลากลางวันเป็นสัญญาณบอกเวลา “โมง” คู่กับกลองที่ตีเป็นสัญญาณในเวลากลางคืนบอกเวลา “ทุ่ม”.</t>
   </si>
   <si>
-    <t>ก. ทำให้ตาย เช่น ฆ่าคน ฆ่าสัตว์; ทำให้หมดไป, ทำให้สิ้นไป, เช่น ฆ่าเวลา ฆ่ากลิ่น ฆ่าข้อความ.</t>
-  </si>
-  <si>
     <t>ก. ทำให้ตาย.</t>
   </si>
   <si>
-    <t>ก. ทำการใหญ่ไม่ควรตระหนี่.; ก. ทำการใหญ่ไม่ควรตระหนี่.</t>
-  </si>
-  <si>
     <t>ก. ทำลายของใหญ่เพื่อให้ได้ของเล็กน้อยซึ่งไม่คุ้มค่ากัน.</t>
   </si>
   <si>
@@ -211,36 +181,15 @@
     <t>ก. ใช้อาวุธฆ่ากัน.</t>
   </si>
   <si>
-    <t>น. การฆ่า, การทำลาย.; ก. ตี.</t>
-  </si>
-  <si>
-    <t>น. การฆ่า, การทำลาย.; ก. ตี เช่น เจ้าวิลาสฆาตกลองเร่งกองรบ (อภัย).; น. การฆ่า, การทำลาย.; ก. ตี เช่น เจ้าวิลาสฆาตกลองเร่งกองรบ (อภัย).</t>
-  </si>
-  <si>
     <t>น. ผู้ที่ฆ่าคน.</t>
   </si>
   <si>
     <t>น. การฆ่าคน.</t>
   </si>
   <si>
-    <t>น. จมูก, ประสาทที่รับรู้กลิ่น.; น. จมูก, ประสาทที่รับรู้กลิ่น.</t>
-  </si>
-  <si>
     <t>น. ประสาทที่รับรู้กลิ่น.</t>
   </si>
   <si>
-    <t>ก. ตีด้วยหวายหรือไม้เรียวเป็นต้นเป็นการลงโทษ; เร่งความเร็ว เช่น เฆี่ยนมาด้วยความเร็ว ๑๘๐ กิโลเมตรต่อชั่วโมง, เอาชนะคู่แข่งขันอย่างขาดลอย เช่น เฆี่ยนฝ่ายตรงข้าม ๓ เกมรวด.</t>
-  </si>
-  <si>
-    <t>น. งูพิษ.; ว. มีพิษร้าย.</t>
-  </si>
-  <si>
-    <t>น. ผู้ประกาศ, ผู้โฆษณา, เช่น โฆษกสถานีวิทยุ; ผู้แถลงข่าวแทน เช่น โฆษกพรรคการเมือง.</t>
-  </si>
-  <si>
-    <t>ก. เผยแพร่ข้อความออกไปยังสาธารณชน; ป่าวร้อง, ป่าวประกาศ, เช่น โฆษณาสินค้า; กระทำการไม่ว่าโดยวิธีใด ๆ ให้ประชาชนเห็นหรือทราบข้อความเพื่อประโยชน์ในทางการค้า.</t>
-  </si>
-  <si>
     <t>น. การป่าวร้องให้ทราบ, การแจ้งความให้ทราบ.</t>
   </si>
   <si>
@@ -343,23 +292,110 @@
     <t>related_word</t>
   </si>
   <si>
-    <t>ดู กระแต ๑.</t>
-  </si>
-  <si>
-    <t>ดู ฆ้องชัย.</t>
-  </si>
-  <si>
     <t>น. ชื่อไม้ล้มลุกหลายชนิดในสกุล  Kalanchoe วงศ์ Crassulaceae ใบอวบนํ้า ใช้ทำยาได้ เช่น ชนิด  K. integra (Medik.) Kuntze. ดอกสีเหลือง.</t>
   </si>
   <si>
-    <t>น. จมูกซึ่งเป็นใหญ่ในการดมกลิ่น.; ดู ฆาน, ฆาน-.</t>
+    <t>? พยัญชนะตัวที่ ๖ เรียกว่า ฆอ ระฆัง เป็นอักษรตํ่า ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากกหรือแม่กก เช่น เมฆ.</t>
+  </si>
+  <si>
+    <t>ฆระ</t>
+  </si>
+  <si>
+    <t>ฆร-</t>
+  </si>
+  <si>
+    <t>น. เรือน.</t>
+  </si>
+  <si>
+    <t>ฆนะ</t>
+  </si>
+  <si>
+    <t>ฆน-</t>
+  </si>
+  <si>
+    <t>ว. แน่น, ทึบ, แข็ง เช่น กรวดกรับอันคละฆนศิลา (ดุษฎีคำฉันท์).</t>
+  </si>
+  <si>
+    <t>น. แท่ง, ก้อน.</t>
+  </si>
+  <si>
+    <t>น. ชื่อฆ้องวงขนาดเล็ก ใช้บรรเลงในวงปี่พาทย์มอญ ลักษณะร้านฆ้องเป็นรูปเว้าหงายขึ้น คล้ายฆ้องมอญแต่ปลายไม่สูง วงหนึ่งมีลูกฆ้อง ๑๑ ลูก, ฆ้องขนาดเล็กลูกเดียวแขวนกับไม้ ใช้มือหิ้วหรือแขวนไม้กับไม้ขาหยั่ง ใช้ตีเป็นสัญญาณในการอยู่เวรยามหรือแจ้งข่าวสารต่าง ๆ, ทั้ง ๒ ชนิดเรียกว่า ฆ้องกระแต.</t>
+  </si>
+  <si>
+    <t>ฆ่าควายอย่าเสียดายพริก</t>
+  </si>
+  <si>
+    <t>ฆ่าควายเสียดายเกลือ</t>
+  </si>
+  <si>
+    <t>ก. ทำการใหญ่ไม่ควรตระหนี่.</t>
+  </si>
+  <si>
+    <t>น. การฆ่า, การทำลาย.</t>
+  </si>
+  <si>
+    <t>ก. ตี.</t>
+  </si>
+  <si>
+    <t>ฆาต-</t>
+  </si>
+  <si>
+    <t>ฆาต</t>
+  </si>
+  <si>
+    <t>ก. ตี เช่น เจ้าวิลาสฆาตกลองเร่งกองรบ (อภัย).</t>
+  </si>
+  <si>
+    <t>ฆาน-</t>
+  </si>
+  <si>
+    <t>ฆาน</t>
+  </si>
+  <si>
+    <t>น. จมูก, ประสาทที่รับรู้กลิ่น.</t>
+  </si>
+  <si>
+    <t>น. งูพิษ.</t>
+  </si>
+  <si>
+    <t>ว. มีพิษร้าย.</t>
+  </si>
+  <si>
+    <t>ก. ทำให้ตาย เช่น ฆ่าคน ฆ่าสัตว์</t>
+  </si>
+  <si>
+    <t>ก. ทำให้หมดไป, ทำให้สิ้นไป, เช่น ฆ่าเวลา ฆ่ากลิ่น ฆ่าข้อความ.</t>
+  </si>
+  <si>
+    <t>น. จมูกซึ่งเป็นใหญ่ในการดมกลิ่น.</t>
+  </si>
+  <si>
+    <t>น. ผู้ประกาศ, ผู้โฆษณา, เช่น โฆษกสถานีวิทยุ</t>
+  </si>
+  <si>
+    <t>น. ผู้แถลงข่าวแทน เช่น โฆษกพรรคการเมือง.</t>
+  </si>
+  <si>
+    <t>ก. ตีด้วยหวายหรือไม้เรียวเป็นต้นเป็นการลงโทษ</t>
+  </si>
+  <si>
+    <t>ก. เร่งความเร็ว เช่น เฆี่ยนมาด้วยความเร็ว ๑๘๐ กิโลเมตรต่อชั่วโมง, เอาชนะคู่แข่งขันอย่างขาดลอย เช่น เฆี่ยนฝ่ายตรงข้าม ๓ เกมรวด.</t>
+  </si>
+  <si>
+    <t>ก. กระทำการไม่ว่าโดยวิธีใด ๆ ให้ประชาชนเห็นหรือทราบข้อความเพื่อประโยชน์ในทางการค้า.</t>
+  </si>
+  <si>
+    <t>ก. เผยแพร่ข้อความออกไปยังสาธารณชน</t>
+  </si>
+  <si>
+    <t>ก. ป่าวร้อง, ป่าวประกาศ, เช่น โฆษณาสินค้า</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,11 +405,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -417,12 +456,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -440,6 +482,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -729,432 +775,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="81" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    <row r="39" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    <row r="40" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="41" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2" t="s">
+    <row r="43" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="2" t="s">
+    <row r="52" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
+    <row r="55" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="56" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="D57" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
